--- a/Data/hct/auto_renew_data/同济医院交互明细.xlsx
+++ b/Data/hct/auto_renew_data/同济医院交互明细.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20200803_31157.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240830_53195.html</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20240830_53195.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20200803_31157.html</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20200803_31157.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240830_53195.html</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20240830_53195.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20200803_31157.html</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2018-06-05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20240425_52305.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20180605_23933.html</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2021-01-06</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20230822_50825.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240425_52305.html</t>
         </is>
       </c>
     </row>
@@ -622,12 +622,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20240704_52871.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20180605_23933.html</t>
         </is>
       </c>
     </row>
@@ -644,12 +644,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20210106_31938.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240814_53123.html</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2014-07-28</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20240814_53123.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20230822_50825.html</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2018-03-08</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20240425_52305.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20210106_31938.html</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>技术</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20240425_52305.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20140728_14417.html</t>
         </is>
       </c>
     </row>
@@ -727,171 +727,171 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>技术</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2018-06-05</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20210106_31938.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240704_52871.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>黄石市中心医院</t>
+          <t>咸宁市中心医院</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2020-08-17</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20211122_47248.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20180308_23000.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>黄石市中心医院</t>
+          <t>咸宁市中心医院</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/contents/563/31219.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240425_52305.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>黄石市中心医院</t>
+          <t>咸宁市中心医院</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>技术</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2010-04-20</t>
+          <t>2013-09-09</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/Content/95860420.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20130909_13427.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>黄石市中心医院</t>
+          <t>咸宁市中心医院</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>技术</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2023-06-06</t>
+          <t>2018-03-08</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/contents/563/50446.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20210106_31938.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>黄石市中心医院</t>
+          <t>咸宁市中心医院</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>技术</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2018-08-01</t>
+          <t>2021-01-06</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20180801_24494.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20140728_14417.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>黄石市中心医院</t>
+          <t>咸宁市中心医院</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>技术</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-11-22</t>
+          <t>2014-07-28</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20220927_49095.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20180308_23000.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>黄石市中心医院</t>
+          <t>咸宁市中心医院</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>技术</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2020-08-17</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20201231_31921.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20240425_52305.html</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2010-04-20</t>
+          <t>2018-08-01</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20211122_47248.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20180801_24494.html</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2010-04-20</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/contents/563/31219.html</t>
+          <t>https://www.tjh.com.cn/contents/563/50446.html</t>
         </is>
       </c>
     </row>
@@ -947,12 +947,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2023-06-06</t>
+          <t>2021-11-22</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -969,17 +969,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2018-08-01</t>
+          <t>2020-08-17</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/contents/563/50446.html</t>
+          <t>https://www.tjh.com.cn/TjhNews/20220927_49095.html</t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-11-22</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.tjh.com.cn/TjhNews/20180801_24494.html</t>
+          <t>https://www.tjh.com.cn/contents/563/31219.html</t>
         </is>
       </c>
     </row>
@@ -1013,15 +1013,169 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>合作</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2023-06-06</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/TjhNews/20211122_47248.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2018-08-01</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/TjhNews/20180801_24494.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2010-04-20</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/contents/563/50446.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2021-11-22</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/Content/95860420.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2020-08-17</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/TjhNews/20201231_31921.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/contents/563/31219.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2023-06-06</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.tjh.com.cn/TjhNews/20211122_47248.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>黄石市中心医院</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>技术</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>2022-09-27</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>https://www.tjh.com.cn/TjhNews/20220927_49095.html</t>
         </is>
